--- a/M2/Parallelisme/Optimisation/TP3/Perf-MatrixProd-MPI.xlsx
+++ b/M2/Parallelisme/Optimisation/TP3/Perf-MatrixProd-MPI.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\Cours\M2\Parallelisme\Optimisation\TP3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2462B-90AE-4021-9E84-FF03E3A84A8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark sur Sarah" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Benchmark sur Sarah" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,24 +33,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
-    <t xml:space="preserve">FUCHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROSSARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster Sarah de 32 nœuds</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>FUCHS</t>
+  </si>
+  <si>
+    <t>Matthieu</t>
+  </si>
+  <si>
+    <t>BROSSARD</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Cluster Sarah de 32 nœuds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -56,29 +67,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Problème de taille fixe ('SIZE' reste inchangé), distribué sur de plus en plus de nœuds</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Taille matrice :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8192x8192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 processeurs de 4 cœurs physiques hyperthreadés</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>Problème de taille fixe ('SIZE' reste inchangé), distribué sur de plus en plus de nœuds</t>
+    </r>
+  </si>
+  <si>
+    <t>Taille matrice :</t>
+  </si>
+  <si>
+    <t>8192x8192</t>
+  </si>
+  <si>
+    <t>16 processeurs de 4 cœurs physiques hyperthreadés</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 process MPI par socket</t>
+      <t>1 process MPI par socket</t>
     </r>
     <r>
       <rPr>
@@ -92,14 +103,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">numérotation consécutive selon les sockets</t>
+      <t>numérotation consécutive selon les sockets</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +124,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
@@ -129,11 +140,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
@@ -144,35 +155,35 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">kernel 1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nb de nœuds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texec (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gigaflops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speedup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité (%)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>kernel 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Nb de nœuds</t>
+  </si>
+  <si>
+    <t>Texec (s)</t>
+  </si>
+  <si>
+    <t>Gigaflops</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Efficacité (%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
@@ -188,11 +199,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">avec</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>avec</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
@@ -212,14 +223,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1th par cœur physique de chaque socket</t>
+      <t>1th par cœur physique de chaque socket</t>
     </r>
     <r>
       <rPr>
@@ -233,27 +244,27 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">kernel 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>kernel 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 process MPI par cœur phy</t>
+      <t>1 process MPI par cœur phy</t>
     </r>
     <r>
       <rPr>
@@ -267,7 +278,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
@@ -278,14 +289,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="14"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">coeurs</t>
+      <t>coeurs</t>
     </r>
     <r>
       <rPr>
@@ -299,14 +310,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1th par process MPI</t>
+      <t>1th par process MPI</t>
     </r>
     <r>
       <rPr>
@@ -320,27 +331,27 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">kernel 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>kernel 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 process MPI par cœur phy</t>
+      <t>1 process MPI par cœur phy</t>
     </r>
     <r>
       <rPr>
@@ -354,7 +365,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
@@ -365,14 +376,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="14"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nœuds</t>
+      <t>nœuds</t>
     </r>
     <r>
       <rPr>
@@ -386,14 +397,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1th par process MPI</t>
+      <t>1th par process MPI</t>
     </r>
     <r>
       <rPr>
@@ -407,29 +418,22 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">kernel 1</t>
+      <t>kernel 1</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -438,28 +442,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -467,7 +456,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -475,7 +464,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF3399"/>
       <name val="Calibri"/>
@@ -483,7 +472,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -491,7 +480,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -532,120 +521,71 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -704,30 +644,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="9.14"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +985,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,26 +995,26 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>43537</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -774,151 +1022,143 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="9">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="9">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="9">
         <v>16</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="11">
         <v>26.61</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="11">
         <v>13.69</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="11">
         <v>6.95</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="11">
         <v>3.88</v>
       </c>
-      <c r="F12" s="12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G12" s="12" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="11">
         <v>41.311</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="11">
         <v>80.3</v>
       </c>
-      <c r="D13" s="12" t="n">
-        <v>158.05</v>
-      </c>
-      <c r="E13" s="12" t="n">
+      <c r="D13" s="11">
+        <v>158.05000000000001</v>
+      </c>
+      <c r="E13" s="11">
         <v>282.98</v>
       </c>
-      <c r="F13" s="12" t="n">
-        <v>449.41</v>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>696.69</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <f aca="false">B13/$B$13</f>
+      <c r="B14" s="11">
+        <f t="shared" ref="B14:G14" si="0">B13/$B$13</f>
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="n">
-        <f aca="false">C13/$B$13</f>
-        <v>1.94379221030718</v>
-      </c>
-      <c r="D14" s="12" t="n">
-        <f aca="false">D13/$B$13</f>
-        <v>3.82585751978892</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <f aca="false">E13/$B$13</f>
-        <v>6.84999152768028</v>
-      </c>
-      <c r="F14" s="12" t="n">
-        <f aca="false">F13/$B$13</f>
-        <v>10.8787005882211</v>
-      </c>
-      <c r="G14" s="12" t="n">
-        <f aca="false">G13/$B$13</f>
-        <v>16.8645155043451</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>1.9437922103071821</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8258575197889186</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.8499915276802792</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="n">
-        <f aca="false">B14/B11*100</f>
+      <c r="B15" s="12">
+        <f t="shared" ref="B15:G15" si="1">B14/B11*100</f>
         <v>100</v>
       </c>
-      <c r="C15" s="13" t="n">
-        <f aca="false">C14/C11*100</f>
-        <v>97.1896105153591</v>
-      </c>
-      <c r="D15" s="13" t="n">
-        <f aca="false">D14/D11*100</f>
-        <v>95.646437994723</v>
-      </c>
-      <c r="E15" s="13" t="n">
-        <f aca="false">E14/E11*100</f>
-        <v>85.6248940960035</v>
-      </c>
-      <c r="F15" s="13" t="n">
-        <f aca="false">F14/F11*100</f>
-        <v>67.9918786763816</v>
-      </c>
-      <c r="G15" s="13" t="n">
-        <f aca="false">G14/G11*100</f>
-        <v>52.7016109510784</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="12">
+        <f t="shared" si="1"/>
+        <v>97.189610515359107</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>95.646437994722959</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="1"/>
+        <v>85.624894096003487</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -929,134 +1169,126 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="9">
         <v>1</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="9">
         <v>4</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="9">
         <v>8</v>
       </c>
-      <c r="F19" s="10" t="n">
+      <c r="F19" s="9">
         <v>16</v>
       </c>
-      <c r="G19" s="10" t="n">
+      <c r="G19" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="11">
         <v>7.34</v>
       </c>
-      <c r="C20" s="12" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D20" s="12" t="n">
+      <c r="C20" s="11">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D20" s="11">
         <v>2.44</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="11">
         <v>1.74</v>
       </c>
-      <c r="F20" s="12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G20" s="12" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="11">
         <v>149.59</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="C21" s="11">
         <v>265.02</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="11">
         <v>448.85</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="11">
         <v>631.71</v>
       </c>
-      <c r="F21" s="12" t="n">
-        <v>853.84</v>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>1096.31</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="n">
-        <f aca="false">B21/$B$21</f>
+      <c r="B22" s="11">
+        <f t="shared" ref="B22:G22" si="2">B21/$B$21</f>
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="n">
-        <f aca="false">C21/$B$21</f>
-        <v>1.77164248947122</v>
-      </c>
-      <c r="D22" s="12" t="n">
-        <f aca="false">D21/$B$21</f>
-        <v>3.00053479510662</v>
-      </c>
-      <c r="E22" s="12" t="n">
-        <f aca="false">E21/$B$21</f>
-        <v>4.2229427100742</v>
-      </c>
-      <c r="F22" s="12" t="n">
-        <f aca="false">F21/$B$21</f>
-        <v>5.70786817300622</v>
-      </c>
-      <c r="G22" s="12" t="n">
-        <f aca="false">G21/$B$21</f>
-        <v>7.32876529179758</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="C22" s="11">
+        <f t="shared" si="2"/>
+        <v>1.7716424894712213</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="2"/>
+        <v>3.000534795106625</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="2"/>
+        <v>4.2229427100742027</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13" t="n">
-        <f aca="false">B22/B19*100</f>
+      <c r="B23" s="12">
+        <f t="shared" ref="B23:G23" si="3">B22/B19*100</f>
         <v>100</v>
       </c>
-      <c r="C23" s="13" t="n">
-        <f aca="false">C22/C19*100</f>
-        <v>88.5821244735611</v>
-      </c>
-      <c r="D23" s="13" t="n">
-        <f aca="false">D22/D19*100</f>
-        <v>75.0133698776656</v>
-      </c>
-      <c r="E23" s="13" t="n">
-        <f aca="false">E22/E19*100</f>
-        <v>52.7867838759275</v>
-      </c>
-      <c r="F23" s="13" t="n">
-        <f aca="false">F22/F19*100</f>
-        <v>35.6741760812889</v>
-      </c>
-      <c r="G23" s="13" t="n">
-        <f aca="false">G22/G19*100</f>
-        <v>22.9023915368674</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="12">
+        <f t="shared" si="3"/>
+        <v>88.582124473561066</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="3"/>
+        <v>75.013369877665625</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="3"/>
+        <v>52.786783875927533</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>16</v>
       </c>
@@ -1067,134 +1299,126 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
-      <c r="C27" s="10" t="n">
+      <c r="C27" s="9">
         <v>2</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="9">
         <v>4</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E27" s="9">
         <v>8</v>
       </c>
-      <c r="F27" s="10" t="n">
+      <c r="F27" s="9">
         <v>16</v>
       </c>
-      <c r="G27" s="10" t="n">
+      <c r="G27" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="11">
         <v>26.62</v>
       </c>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="11">
         <v>13.26</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="11">
         <v>6.87</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="11">
         <v>3.99</v>
       </c>
-      <c r="F28" s="12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G28" s="12" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="11">
         <v>41.3</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="11">
         <v>82.91</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="11">
         <v>160.01</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="11">
         <v>275.49</v>
       </c>
-      <c r="F29" s="12" t="n">
-        <v>441.93</v>
-      </c>
-      <c r="G29" s="12" t="n">
-        <v>673.34</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="12" t="n">
-        <f aca="false">B29/$B$29</f>
+      <c r="B30" s="11">
+        <f t="shared" ref="B30:G30" si="4">B29/$B$29</f>
         <v>1</v>
       </c>
-      <c r="C30" s="12" t="n">
-        <f aca="false">#REF!/$B$29</f>
-        <v>2.00750605326877</v>
-      </c>
-      <c r="D30" s="12" t="n">
-        <f aca="false">D29/$B$29</f>
-        <v>3.87433414043584</v>
-      </c>
-      <c r="E30" s="12" t="n">
-        <f aca="false">E29/$B$29</f>
-        <v>6.67046004842615</v>
-      </c>
-      <c r="F30" s="12" t="n">
-        <f aca="false">E29/$B$29</f>
-        <v>6.67046004842615</v>
-      </c>
-      <c r="G30" s="12" t="n">
-        <f aca="false">E29/$B$29</f>
-        <v>6.67046004842615</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="C30" s="11">
+        <f t="shared" si="4"/>
+        <v>2.0075060532687652</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="4"/>
+        <v>3.8743341404358356</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="4"/>
+        <v>6.6704600484261505</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="13" t="n">
-        <f aca="false">B30/B27*100</f>
+      <c r="B31" s="12">
+        <f t="shared" ref="B31:G31" si="5">B30/B27*100</f>
         <v>100</v>
       </c>
-      <c r="C31" s="13" t="n">
-        <f aca="false">C30/C27*100</f>
-        <v>100.375302663438</v>
-      </c>
-      <c r="D31" s="13" t="n">
-        <f aca="false">D30/D27*100</f>
-        <v>96.8583535108959</v>
-      </c>
-      <c r="E31" s="13" t="n">
-        <f aca="false">E30/E27*100</f>
-        <v>83.3807506053269</v>
-      </c>
-      <c r="F31" s="13" t="n">
-        <f aca="false">F30/F27*100</f>
-        <v>41.6903753026634</v>
-      </c>
-      <c r="G31" s="13" t="n">
-        <f aca="false">G30/G27*100</f>
-        <v>20.8451876513317</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="12">
+        <f t="shared" si="5"/>
+        <v>100.37530266343826</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="5"/>
+        <v>96.858353510895896</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="5"/>
+        <v>83.380750605326881</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>17</v>
       </c>
@@ -1205,131 +1429,123 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="8">
         <v>2</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="8">
         <v>4</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E35" s="8">
         <v>8</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="8">
         <v>16</v>
       </c>
-      <c r="G35" s="9" t="n">
+      <c r="G35" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="11">
         <v>26.39</v>
       </c>
-      <c r="C36" s="12" t="n">
+      <c r="C36" s="11">
         <v>13.92</v>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="11">
         <v>7.53</v>
       </c>
-      <c r="E36" s="12" t="n">
+      <c r="E36" s="11">
         <v>4.63</v>
       </c>
-      <c r="F36" s="12" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="G36" s="12" t="n">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="11">
         <v>41.64</v>
       </c>
-      <c r="C37" s="12" t="n">
+      <c r="C37" s="11">
         <v>78.97</v>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="11">
         <v>145.93</v>
       </c>
-      <c r="E37" s="12" t="n">
+      <c r="E37" s="11">
         <v>237.19</v>
       </c>
-      <c r="F37" s="12" t="n">
-        <v>226.58</v>
-      </c>
-      <c r="G37" s="12" t="n">
-        <v>200.16</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="12" t="n">
-        <f aca="false">B37/$B$37</f>
+      <c r="B38" s="11">
+        <f t="shared" ref="B38:G38" si="6">B37/$B$37</f>
         <v>1</v>
       </c>
-      <c r="C38" s="12" t="n">
-        <f aca="false">C37/$B$37</f>
-        <v>1.89649375600384</v>
-      </c>
-      <c r="D38" s="12" t="n">
-        <f aca="false">D37/$B$37</f>
-        <v>3.50456292026897</v>
-      </c>
-      <c r="E38" s="12" t="n">
-        <f aca="false">E37/$B$37</f>
-        <v>5.6962055715658</v>
-      </c>
-      <c r="F38" s="12" t="n">
-        <f aca="false">F37/$B$37</f>
-        <v>5.44140249759846</v>
-      </c>
-      <c r="G38" s="12" t="n">
-        <f aca="false">G37/$B$37</f>
-        <v>4.80691642651297</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+      <c r="C38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.8964937560038424</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="6"/>
+        <v>3.5045629202689721</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="6"/>
+        <v>5.6962055715658018</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="13" t="n">
-        <f aca="false">B38/B35*100</f>
+      <c r="B39" s="12">
+        <f t="shared" ref="B39:G39" si="7">B38/B35*100</f>
         <v>100</v>
       </c>
-      <c r="C39" s="13" t="n">
-        <f aca="false">C38/C35*100</f>
-        <v>94.8246878001921</v>
-      </c>
-      <c r="D39" s="13" t="n">
-        <f aca="false">D38/D35*100</f>
-        <v>87.6140730067243</v>
-      </c>
-      <c r="E39" s="13" t="n">
-        <f aca="false">E38/E35*100</f>
-        <v>71.2025696445725</v>
-      </c>
-      <c r="F39" s="13" t="n">
-        <f aca="false">F38/F35*100</f>
-        <v>34.0087656099904</v>
-      </c>
-      <c r="G39" s="13" t="n">
-        <f aca="false">G38/G35*100</f>
-        <v>15.021613832853</v>
+      <c r="C39" s="12">
+        <f t="shared" si="7"/>
+        <v>94.824687800192123</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="7"/>
+        <v>87.614073006724297</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="7"/>
+        <v>71.20256964457252</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1339,12 +1555,7 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A34:G34"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/M2/Parallelisme/Optimisation/TP3/Perf-MatrixProd-MPI.xlsx
+++ b/M2/Parallelisme/Optimisation/TP3/Perf-MatrixProd-MPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\Cours\M2\Parallelisme\Optimisation\TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2462B-90AE-4021-9E84-FF03E3A84A8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B4E23-5790-4B10-A101-A6259DF7AC34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>FUCHS</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>8192x8192</t>
-  </si>
-  <si>
-    <t>16 processeurs de 4 cœurs physiques hyperthreadés</t>
   </si>
   <si>
     <r>
@@ -427,6 +424,27 @@
       </rPr>
       <t>kernel 1</t>
     </r>
+  </si>
+  <si>
+    <t>mpirun -np 64 -map-by ppr:1:socket -rank-by socket -bind-to socket -machinefile machines.txt ./MatrixProduct -klc 8 -k 1 -nt 1</t>
+  </si>
+  <si>
+    <t>mpirun -np 256 -map-by ppr:1:core -rank-by core -bind-to core -machinefile machines.txt ./MatrixProduct -klc 8 -k 1 -nt 1</t>
+  </si>
+  <si>
+    <t>mpirun -np 256 -map-by ppr:1:core -rank-by node -bind-to core -machinefile machines.txt ./MatrixProduct -klc 8 -k 1 -nt 1</t>
+  </si>
+  <si>
+    <t>32 PC avec 2 processeurs de 4 cœurs physiques hyperthreadés</t>
+  </si>
+  <si>
+    <t>np = 2 socket * Nmachines</t>
+  </si>
+  <si>
+    <t>np = 4 coeurs * Nmachines</t>
+  </si>
+  <si>
+    <t>mpirun -np 64 -map-by ppr:1:socket -rank-by socket -bind-to socket -machinefile machines.txt ./MatrixProduct -klc 8 -k 1 -nt 4</t>
   </si>
 </sst>
 </file>
@@ -964,13 +982,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:G37"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="105" customWidth="1"/>
     <col min="2" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="1025" width="9.140625" customWidth="1"/>
   </cols>
@@ -1024,13 +1042,21 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1041,7 +1067,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -1064,103 +1090,115 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>26.61</v>
+        <v>13.69</v>
       </c>
       <c r="C12" s="11">
-        <v>13.69</v>
+        <v>6.95</v>
       </c>
       <c r="D12" s="11">
-        <v>6.95</v>
+        <v>3.88</v>
       </c>
       <c r="E12" s="11">
-        <v>3.88</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.69</v>
+      </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11">
-        <v>41.311</v>
+        <v>80.3</v>
       </c>
       <c r="C13" s="11">
-        <v>80.3</v>
+        <v>158.05000000000001</v>
       </c>
       <c r="D13" s="11">
-        <v>158.05000000000001</v>
+        <v>282.98</v>
       </c>
       <c r="E13" s="11">
-        <v>282.98</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>44.32</v>
+      </c>
+      <c r="F13" s="11">
+        <v>647.13</v>
+      </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <f>B13/$B$13</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <f>C13/$B$13</f>
+        <v>1.9682440846824412</v>
+      </c>
+      <c r="D14" s="11">
+        <f>D13/$B$13</f>
+        <v>3.5240348692403489</v>
+      </c>
+      <c r="E14" s="11">
+        <f>E13/$B$13</f>
+        <v>0.55193026151930269</v>
+      </c>
+      <c r="F14" s="11">
+        <f>F13/$B$13</f>
+        <v>8.0589041095890419</v>
+      </c>
+      <c r="G14" s="11">
+        <f>G13/$B$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
-        <f t="shared" ref="B14:G14" si="0">B13/$B$13</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B15" s="12">
+        <f t="shared" ref="B15:G15" si="0">B14/B11*100</f>
+        <v>100</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
-        <v>1.9437922103071821</v>
-      </c>
-      <c r="D14" s="11">
+        <v>98.412204234122058</v>
+      </c>
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>3.8258575197889186</v>
-      </c>
-      <c r="E14" s="11">
+        <v>88.100871731008723</v>
+      </c>
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
-        <v>6.8499915276802792</v>
-      </c>
-      <c r="F14" s="11">
+        <v>6.8991282689912836</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>50.368150684931514</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12">
-        <f t="shared" ref="B15:G15" si="1">B14/B11*100</f>
-        <v>100</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" si="1"/>
-        <v>97.189610515359107</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="1"/>
-        <v>95.646437994722959</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="1"/>
-        <v>85.624894096003487</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1171,7 +1209,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
@@ -1194,103 +1232,115 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="11">
-        <v>7.34</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C20" s="11">
-        <v>4.1399999999999997</v>
+        <v>2.44</v>
       </c>
       <c r="D20" s="11">
-        <v>2.44</v>
+        <v>1.74</v>
       </c>
       <c r="E20" s="11">
-        <v>1.74</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>1.24</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1.06</v>
+      </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="11">
-        <v>149.59</v>
+        <v>265.02</v>
       </c>
       <c r="C21" s="11">
-        <v>265.02</v>
+        <v>448.85</v>
       </c>
       <c r="D21" s="11">
-        <v>448.85</v>
+        <v>631.71</v>
       </c>
       <c r="E21" s="11">
-        <v>631.71</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>884.44</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1034.17</v>
+      </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" ref="B22:G22" si="1">B21/$B$21</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="1"/>
+        <v>1.693645762583956</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>2.3836314240434686</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
+        <v>3.3372575654667576</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="1"/>
+        <v>3.9022337936759497</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="11">
-        <f t="shared" ref="B22:G22" si="2">B21/$B$21</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B23" s="12">
+        <f t="shared" ref="B23:G23" si="2">B22/B19*100</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="12">
         <f t="shared" si="2"/>
-        <v>1.7716424894712213</v>
-      </c>
-      <c r="D22" s="11">
+        <v>84.682288129197801</v>
+      </c>
+      <c r="D23" s="12">
         <f t="shared" si="2"/>
-        <v>3.000534795106625</v>
-      </c>
-      <c r="E22" s="11">
+        <v>59.590785601086715</v>
+      </c>
+      <c r="E23" s="12">
         <f t="shared" si="2"/>
-        <v>4.2229427100742027</v>
-      </c>
-      <c r="F22" s="11">
+        <v>41.715719568334471</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>24.388961210474687</v>
+      </c>
+      <c r="G23" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="12">
-        <f t="shared" ref="B23:G23" si="3">B22/B19*100</f>
-        <v>100</v>
-      </c>
-      <c r="C23" s="12">
-        <f t="shared" si="3"/>
-        <v>88.582124473561066</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="3"/>
-        <v>75.013369877665625</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="3"/>
-        <v>52.786783875927533</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -1301,7 +1351,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -1324,103 +1374,115 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="11">
-        <v>26.62</v>
+        <v>6.87</v>
       </c>
       <c r="C28" s="11">
-        <v>13.26</v>
+        <v>3.99</v>
       </c>
       <c r="D28" s="11">
-        <v>6.87</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E28" s="11">
-        <v>3.99</v>
-      </c>
-      <c r="F28" s="11"/>
+        <v>1.52</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1.21</v>
+      </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="11">
-        <v>41.3</v>
+        <v>160.01</v>
       </c>
       <c r="C29" s="11">
-        <v>82.91</v>
+        <v>275.49</v>
       </c>
       <c r="D29" s="11">
-        <v>160.01</v>
+        <v>444.09</v>
       </c>
       <c r="E29" s="11">
-        <v>275.49</v>
-      </c>
-      <c r="F29" s="11"/>
+        <v>721.41</v>
+      </c>
+      <c r="F29" s="11">
+        <v>906.59</v>
+      </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" ref="B30:G30" si="3">B29/$B$29</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="3"/>
+        <v>1.7217048934441599</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="3"/>
+        <v>2.7753890381851134</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="3"/>
+        <v>4.5085307168301982</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="3"/>
+        <v>5.6658333854134124</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="11">
-        <f t="shared" ref="B30:G30" si="4">B29/$B$29</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="B31" s="12">
+        <f t="shared" ref="B31:G31" si="4">B30/B27*100</f>
+        <v>100</v>
+      </c>
+      <c r="C31" s="12">
         <f t="shared" si="4"/>
-        <v>2.0075060532687652</v>
-      </c>
-      <c r="D30" s="11">
+        <v>86.085244672207992</v>
+      </c>
+      <c r="D31" s="12">
         <f t="shared" si="4"/>
-        <v>3.8743341404358356</v>
-      </c>
-      <c r="E30" s="11">
+        <v>69.384725954627839</v>
+      </c>
+      <c r="E31" s="12">
         <f t="shared" si="4"/>
-        <v>6.6704600484261505</v>
-      </c>
-      <c r="F30" s="11">
+        <v>56.356633960377479</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="4"/>
+        <v>35.41145865883383</v>
+      </c>
+      <c r="G31" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G30" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="12">
-        <f t="shared" ref="B31:G31" si="5">B30/B27*100</f>
-        <v>100</v>
-      </c>
-      <c r="C31" s="12">
-        <f t="shared" si="5"/>
-        <v>100.37530266343826</v>
-      </c>
-      <c r="D31" s="12">
-        <f t="shared" si="5"/>
-        <v>96.858353510895896</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="5"/>
-        <v>83.380750605326881</v>
-      </c>
-      <c r="F31" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -1431,7 +1493,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -1454,97 +1516,101 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="11">
-        <v>26.39</v>
+        <v>6.87</v>
       </c>
       <c r="C36" s="11">
-        <v>13.92</v>
+        <v>3.9</v>
       </c>
       <c r="D36" s="11">
-        <v>7.53</v>
+        <v>6.22</v>
       </c>
       <c r="E36" s="11">
-        <v>4.63</v>
-      </c>
-      <c r="F36" s="11"/>
+        <v>5.16</v>
+      </c>
+      <c r="F36" s="11">
+        <v>5.03</v>
+      </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="11">
-        <v>41.64</v>
+        <v>159.97</v>
       </c>
       <c r="C37" s="11">
-        <v>78.97</v>
+        <v>281.56</v>
       </c>
       <c r="D37" s="11">
-        <v>145.93</v>
+        <v>176.62</v>
       </c>
       <c r="E37" s="11">
-        <v>237.19</v>
-      </c>
-      <c r="F37" s="11"/>
+        <v>212.95</v>
+      </c>
+      <c r="F37" s="11">
+        <v>218.35</v>
+      </c>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="11">
-        <f t="shared" ref="B38:G38" si="6">B37/$B$37</f>
+        <f t="shared" ref="B38:G38" si="5">B37/$B$37</f>
         <v>1</v>
       </c>
       <c r="C38" s="11">
-        <f t="shared" si="6"/>
-        <v>1.8964937560038424</v>
+        <f t="shared" si="5"/>
+        <v>1.7600800150028131</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="6"/>
-        <v>3.5045629202689721</v>
+        <f t="shared" si="5"/>
+        <v>1.1040820153778834</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="6"/>
-        <v>5.6962055715658018</v>
+        <f t="shared" si="5"/>
+        <v>1.3311870975807962</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.3649434268925422</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="12">
-        <f t="shared" ref="B39:G39" si="7">B38/B35*100</f>
+        <f t="shared" ref="B39:G39" si="6">B38/B35*100</f>
         <v>100</v>
       </c>
       <c r="C39" s="12">
-        <f t="shared" si="7"/>
-        <v>94.824687800192123</v>
+        <f t="shared" si="6"/>
+        <v>88.004000750140648</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="7"/>
-        <v>87.614073006724297</v>
+        <f t="shared" si="6"/>
+        <v>27.602050384447086</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="7"/>
-        <v>71.20256964457252</v>
+        <f t="shared" si="6"/>
+        <v>16.639838719759954</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8.5308964180783882</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1556,6 +1622,6 @@
     <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>